--- a/KolekceTabulka.xlsx
+++ b/KolekceTabulka.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\GitHub\MyGitHub\Collections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{CB2021A3-0E54-49F4-A5EE-7F777C03F68C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D102B2B8-F110-4C38-804C-005C85A1F898}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="51">
   <si>
     <t>List (ArrayList)</t>
   </si>
@@ -55,9 +55,21 @@
     <t>Jsou hodnoty ulozene v serazenem poradi od nejmensiho po nejvetsi?</t>
   </si>
   <si>
+    <t>Klice ANO, Hodnoty NE</t>
+  </si>
+  <si>
     <t>Pro oznaceni mista ulozeni hodnot pouziva klic/hash nebo index?</t>
   </si>
   <si>
+    <t>INDEX</t>
+  </si>
+  <si>
+    <t>KLIC</t>
+  </si>
+  <si>
+    <t>KLIC/HASH</t>
+  </si>
+  <si>
     <t>Je mozne ulozit dve stejne hodnoty?</t>
   </si>
   <si>
@@ -68,12 +80,33 @@
   </si>
   <si>
     <t>NE - exception</t>
+  </si>
+  <si>
+    <t>ANO klic i hodnoty</t>
+  </si>
+  <si>
+    <t>klic NE - exception, hodonoty ANO</t>
   </si>
   <si>
     <t>Jake vnitrni datove strukturu kolekce pouziva? (Zjistite pres DEBUG, napr. pole, spojovy seznam, nebo
 jejich kombinace.)</t>
   </si>
   <si>
+    <t>pole</t>
+  </si>
+  <si>
+    <t>oboustrany spojovy seznam, uklada prvni a posledni element</t>
+  </si>
+  <si>
+    <t>TreeMap s hodnotamy "dummy objektu"</t>
+  </si>
+  <si>
+    <t>pole+spojovy seznam</t>
+  </si>
+  <si>
+    <t>strom</t>
+  </si>
+  <si>
     <t>Jak se jmenuje metoda pro pridani jednoho prvku?
 Jake ma vstupy?</t>
   </si>
@@ -128,37 +161,22 @@
     <t>Muze vice vlaken bezpecne paralerne vkladat a mazat hodnoty? (thread-safe)</t>
   </si>
   <si>
-    <t>Klice ANO, Hodnoty NE</t>
-  </si>
-  <si>
-    <t>INDEX</t>
-  </si>
-  <si>
-    <t>KLIC/HASH</t>
-  </si>
-  <si>
-    <t>KLIC</t>
-  </si>
-  <si>
-    <t>ANO klic i hodnoty</t>
-  </si>
-  <si>
-    <t>klic NE - exception, hodonoty ANO</t>
-  </si>
-  <si>
-    <t>pole</t>
-  </si>
-  <si>
-    <t>oboustrany spojovy seznam, uklada prvni a posledni element</t>
-  </si>
-  <si>
-    <t>TreeMap s hodnotamy "dummy objektu"</t>
-  </si>
-  <si>
-    <t>pole+spojovy seznam</t>
-  </si>
-  <si>
-    <t>strom</t>
+    <t>get(index)</t>
+  </si>
+  <si>
+    <t>forEach loop(iterator())</t>
+  </si>
+  <si>
+    <t>get(value)</t>
+  </si>
+  <si>
+    <t>peek(), nebo poll()</t>
+  </si>
+  <si>
+    <t>peek(), nebo poll()[odstrani element]</t>
+  </si>
+  <si>
+    <t>peek(),poll(),pop()</t>
   </si>
 </sst>
 </file>
@@ -550,7 +568,7 @@
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" x14ac:dyDescent="0.25"/>
@@ -651,7 +669,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>8</v>
@@ -672,28 +690,28 @@
     </row>
     <row r="4" spans="1:18" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -708,7 +726,7 @@
     </row>
     <row r="5" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>8</v>
@@ -720,10 +738,10 @@
         <v>9</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>8</v>
@@ -744,7 +762,7 @@
     </row>
     <row r="6" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
@@ -753,19 +771,19 @@
         <v>8</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="4"/>
@@ -780,28 +798,28 @@
     </row>
     <row r="7" spans="1:18" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -816,28 +834,28 @@
     </row>
     <row r="8" spans="1:18" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="4"/>
@@ -852,28 +870,28 @@
     </row>
     <row r="9" spans="1:18" ht="75" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -888,25 +906,25 @@
     </row>
     <row r="10" spans="1:18" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="4"/>
@@ -922,28 +940,28 @@
     </row>
     <row r="11" spans="1:18" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -958,15 +976,29 @@
     </row>
     <row r="12" spans="1:18" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+        <v>43</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -980,15 +1012,29 @@
     </row>
     <row r="13" spans="1:18" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+        <v>44</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
